--- a/biology/Botanique/Globularia_nudicaulis/Globularia_nudicaulis.xlsx
+++ b/biology/Botanique/Globularia_nudicaulis/Globularia_nudicaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globulaire à tiges nues
-La globulaire à tiges nues (Globularia nudicaulis), est une plante vivace qui appartenait à la famille des Globulariaceae selon la classification classique de Cronquist (1981)[1], actuellement à la famille des Plantaginaceae selon la classification phylogénétique APG III (2009)[2].
+La globulaire à tiges nues (Globularia nudicaulis), est une plante vivace qui appartenait à la famille des Globulariaceae selon la classification classique de Cronquist (1981), actuellement à la famille des Plantaginaceae selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Globularia alpina</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante herbacée haute de 10 à 25 cm. Feuilles basales en rosette, pétiolées ; les fleurs sont bleues, groupées en inflorescence globuleuse, la hampe florale est glabre, sans feuilles, ce qui a donné le nom à l'espèce. 
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur sol basique, en montagne (Alpes, Pyrénées), dans des pelouses sèches, souvent caillouteuses.
 </t>
